--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/机械设备制造业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/机械设备制造业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.807752641150247</v>
+        <v>0.817863728372606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.020098341726496</v>
+        <v>0.020721908018433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.013065909437795</v>
+        <v>0.014840391618319</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6224782252e-05</v>
+        <v>4.9567087806e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.068637905213533</v>
+        <v>0.077565452446266</v>
       </c>
       <c r="H2" t="n">
-        <v>0.058234724473026</v>
+        <v>0.058302795544859</v>
       </c>
       <c r="I2" t="n">
-        <v>0.022073675638156</v>
+        <v>0.021879795232515</v>
       </c>
       <c r="J2" t="n">
-        <v>0.192247358849753</v>
+        <v>0.182136271627394</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000230766161778</v>
+        <v>0.000276739252479</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011900206810411</v>
+        <v>0.015280132790219</v>
       </c>
       <c r="M2" t="n">
-        <v>0.030561260942872</v>
+        <v>0.034078657022579</v>
       </c>
       <c r="N2" t="n">
-        <v>0.41909309395224</v>
+        <v>0.409860578342584</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005934692691933</v>
+        <v>0.005643339631679</v>
       </c>
       <c r="P2" t="n">
-        <v>0.040640801264531</v>
+        <v>0.032616108719963</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.014354816037627</v>
+        <v>0.015272229309558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004840315951938</v>
+        <v>0.005428517538688</v>
       </c>
       <c r="S2" t="n">
-        <v>0.060894976733534</v>
+        <v>0.05007491522865</v>
       </c>
       <c r="T2" t="n">
-        <v>0.022294424396929</v>
+        <v>0.027292048317285</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003108966750731</v>
+        <v>0.00293242656266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.177421306583203</v>
+        <v>0.176722985911081</v>
       </c>
       <c r="W2" t="n">
-        <v>0.011854543052261</v>
+        <v>0.014081332899963</v>
       </c>
       <c r="X2" t="n">
-        <v>0.011573712331213</v>
+        <v>0.013663402075633</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003149335067542</v>
+        <v>0.003416676448782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.817863728372606</v>
+        <v>0.809954072590796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.020721908018433</v>
+        <v>0.011364705178507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.014840391618319</v>
+        <v>0.02109712537611</v>
       </c>
       <c r="F3" t="n">
-        <v>4.9567087806e-05</v>
+        <v>7.3612832872e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.077565452446266</v>
+        <v>0.088724331523934</v>
       </c>
       <c r="H3" t="n">
-        <v>0.058302795544859</v>
+        <v>0.057586495347803</v>
       </c>
       <c r="I3" t="n">
-        <v>0.021879795232515</v>
+        <v>0.023175124514644</v>
       </c>
       <c r="J3" t="n">
-        <v>0.182136271627394</v>
+        <v>0.190045927409204</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000276739252479</v>
+        <v>0.001494273501924</v>
       </c>
       <c r="L3" t="n">
-        <v>0.015280132790219</v>
+        <v>0.014380196781424</v>
       </c>
       <c r="M3" t="n">
-        <v>0.034078657022579</v>
+        <v>0.04174778026386</v>
       </c>
       <c r="N3" t="n">
-        <v>0.409860578342584</v>
+        <v>0.40485238389804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005643339631679</v>
+        <v>0.003759233424726</v>
       </c>
       <c r="P3" t="n">
-        <v>0.032616108719963</v>
+        <v>0.028699907814424</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.015272229309558</v>
+        <v>0.011973891611731</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005428517538688</v>
+        <v>0.005265373655289</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05007491522865</v>
+        <v>0.049446563556202</v>
       </c>
       <c r="T3" t="n">
-        <v>0.027292048317285</v>
+        <v>0.027938629442365</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00293242656266</v>
+        <v>0.001638525035864</v>
       </c>
       <c r="V3" t="n">
-        <v>0.176722985911081</v>
+        <v>0.169942267947405</v>
       </c>
       <c r="W3" t="n">
-        <v>0.014081332899963</v>
+        <v>0.019727029612161</v>
       </c>
       <c r="X3" t="n">
-        <v>0.013663402075633</v>
+        <v>0.013294113910386</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003416676448782</v>
+        <v>0.00381843477033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.809954072590796</v>
+        <v>0.801045404121156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.011364705178507</v>
+        <v>0.011362954763899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02109712537611</v>
+        <v>0.022067967307949</v>
       </c>
       <c r="F4" t="n">
-        <v>7.3612832872e-05</v>
+        <v>8.4568466196e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.088724331523934</v>
+        <v>0.086086608478935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.057586495347803</v>
+        <v>0.053674200828381</v>
       </c>
       <c r="I4" t="n">
-        <v>0.023175124514644</v>
+        <v>0.023210700693058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.190045927409204</v>
+        <v>0.198954595878844</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001494273501924</v>
+        <v>0.001545171314587</v>
       </c>
       <c r="L4" t="n">
-        <v>0.014380196781424</v>
+        <v>0.020431512717764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04174778026386</v>
+        <v>0.048050800043869</v>
       </c>
       <c r="N4" t="n">
-        <v>0.40485238389804</v>
+        <v>0.415954506978845</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003759233424726</v>
+        <v>0.001993063505826</v>
       </c>
       <c r="P4" t="n">
-        <v>0.028699907814424</v>
+        <v>0.028533631395122</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.011973891611731</v>
+        <v>0.009202073705062999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005265373655289</v>
+        <v>0.006246187753639</v>
       </c>
       <c r="S4" t="n">
-        <v>0.049446563556202</v>
+        <v>0.061123655311729</v>
       </c>
       <c r="T4" t="n">
-        <v>0.027938629442365</v>
+        <v>0.028681825257298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001638525035864</v>
+        <v>0.000962405293268</v>
       </c>
       <c r="V4" t="n">
-        <v>0.169942267947405</v>
+        <v>0.141378915505711</v>
       </c>
       <c r="W4" t="n">
-        <v>0.019727029612161</v>
+        <v>0.020770200366556</v>
       </c>
       <c r="X4" t="n">
-        <v>0.013294113910386</v>
+        <v>0.014043646377442</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00381843477033</v>
+        <v>0.004595403934865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.801045404121156</v>
+        <v>0.797667966856933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.011362954763899</v>
+        <v>0.001377415272452</v>
       </c>
       <c r="E5" t="n">
-        <v>0.022067967307949</v>
+        <v>0.029114590126273</v>
       </c>
       <c r="F5" t="n">
-        <v>8.4568466196e-05</v>
+        <v>4.7513970974e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.086086608478935</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.053674200828381</v>
-      </c>
+        <v>0.08836532523186701</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.023210700693058</v>
+        <v>0.022662057770137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.198954595878844</v>
+        <v>0.202332033143067</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001545171314587</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.020431512717764</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.048050800043869</v>
-      </c>
+        <v>0.000281459152122</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.415954506978845</v>
+        <v>0.442088451951078</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001993063505826</v>
+        <v>0.04671060989366</v>
       </c>
       <c r="P5" t="n">
-        <v>0.028533631395122</v>
+        <v>0.035903183577635</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009202073705062999</v>
+        <v>0.011525355853091</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006246187753639</v>
+        <v>0.004650094196519</v>
       </c>
       <c r="S5" t="n">
-        <v>0.061123655311729</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.028681825257298</v>
-      </c>
+        <v>0.055401466563428</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.000962405293268</v>
+        <v>0.0009868127895940001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.141378915505711</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.020770200366556</v>
-      </c>
+        <v>0.12685370869425</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.014043646377442</v>
+        <v>0.014921216461662</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004595403934865</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.797667966856933</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001377415272452</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.029114590126273</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.7513970974e-05</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08836532523186701</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.022662057770137</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.202332033143067</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.000281459152122</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.442088451951078</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.04671060989366</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.035903183577635</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.011525355853091</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.004650094196519</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.055401466563428</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.0009868127895940001</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.12685370869425</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.014921216461662</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.005335000307183</v>
       </c>
     </row>
